--- a/Data/Solar_generation_2040.xlsx
+++ b/Data/Solar_generation_2040.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,12 +504,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>348.330026460266+44043.4638303748</f>
-        <v>44391.793856835066</v>
-      </c>
-      <c r="C2" s="3">
-        <f>348.330026460266+44043.4638303748</f>
-        <v>44391.793856835066</v>
+        <f>348.330026460266+44043.4638303748*0.7</f>
+        <v>31178.754707722623</v>
+      </c>
+      <c r="C2" s="6">
+        <f>348.330026460266+44043.4638303748*0.7</f>
+        <v>31178.754707722623</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -518,12 +518,12 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>455.648315172837+51622.4712454696</f>
-        <v>52078.119560642437</v>
-      </c>
-      <c r="G2" s="4">
-        <f>455.648315172837+51622.4712454696</f>
-        <v>52078.119560642437</v>
+        <f>455.648315172837+51622.4712454696*0.7</f>
+        <v>36591.378187001552</v>
+      </c>
+      <c r="G2" s="6">
+        <f>455.648315172837+51622.4712454696*0.7</f>
+        <v>36591.378187001552</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -532,12 +532,12 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>444.130866979328+48524.8276375006</f>
-        <v>48968.958504479931</v>
-      </c>
-      <c r="K2" s="5">
-        <f>444.130866979328+48524.8276375006</f>
-        <v>48968.958504479931</v>
+        <f>444.130866979328+48524.8276375006*0.7</f>
+        <v>34411.510213229747</v>
+      </c>
+      <c r="K2" s="6">
+        <f>444.130866979328+48524.8276375006*0.7</f>
+        <v>34411.510213229747</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -546,12 +546,12 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>342.206360212005+41449.2218635102</f>
-        <v>41791.428223722207</v>
+        <f>342.206360212005+41449.2218635102*0.7</f>
+        <v>29356.661664669144</v>
       </c>
       <c r="O2" s="6">
-        <f>342.206360212005+41449.2218635102</f>
-        <v>41791.428223722207</v>
+        <f>342.206360212005+41449.2218635102*0.7</f>
+        <v>29356.661664669144</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -564,13 +564,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:C4" si="0">348.330026460266+44043.4638303748</f>
-        <v>44391.793856835066</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" si="0"/>
-        <v>44391.793856835066</v>
+      <c r="B3" s="6">
+        <v>348.33002646026569</v>
+      </c>
+      <c r="C3" s="6">
+        <v>348.33002646026569</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -578,13 +576,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:G4" si="1">455.648315172837+51622.4712454696</f>
-        <v>52078.119560642437</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="1"/>
-        <v>52078.119560642437</v>
+      <c r="F3" s="6">
+        <v>455.6483151728375</v>
+      </c>
+      <c r="G3" s="6">
+        <v>455.6483151728375</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -592,13 +588,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:K4" si="2">444.130866979328+48524.8276375006</f>
-        <v>48968.958504479931</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="2"/>
-        <v>48968.958504479931</v>
+      <c r="J3" s="6">
+        <v>444.13086697932829</v>
+      </c>
+      <c r="K3" s="6">
+        <v>444.13086697932829</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -607,12 +601,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:O4" si="3">342.206360212005+41449.2218635102</f>
-        <v>41791.428223722207</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="3"/>
-        <v>41791.428223722207</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -625,13 +617,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>44391.793856835066</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>44391.793856835066</v>
+      <c r="B4" s="6">
+        <v>348.33002646026569</v>
+      </c>
+      <c r="C4" s="6">
+        <v>348.33002646026569</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -639,13 +629,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" si="1"/>
-        <v>52078.119560642437</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
-        <v>52078.119560642437</v>
+      <c r="F4" s="6">
+        <v>455.6483151728375</v>
+      </c>
+      <c r="G4" s="6">
+        <v>455.6483151728375</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -653,13 +641,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="2"/>
-        <v>48968.958504479931</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
-        <v>48968.958504479931</v>
+      <c r="J4" s="6">
+        <v>444.13086697932829</v>
+      </c>
+      <c r="K4" s="6">
+        <v>444.13086697932829</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -668,12 +654,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="3"/>
-        <v>41791.428223722207</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="3"/>
-        <v>41791.428223722207</v>
+        <v>342.20636021200539</v>
       </c>
       <c r="P4">
         <v>0</v>
